--- a/sample_info/AGRF_NGS_yield.xlsx
+++ b/sample_info/AGRF_NGS_yield.xlsx
@@ -5300,8 +5300,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B8E840779CD5394DB6A0677C69D57CD3" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3a115b2da8a2eeee135fdd5733988381">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="1f3c66e0-7684-4412-85ae-938bcfc42664" xmlns:ns3="9c30d4e8-d9db-43d6-83e2-c08e4749ca29" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="46fe6ebd3e8bf6d9df49fa3e9a691e0f" ns1:_="" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B8E840779CD5394DB6A0677C69D57CD3" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="759527f59e11d69b52594aee1565f7b2">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="1f3c66e0-7684-4412-85ae-938bcfc42664" xmlns:ns3="9c30d4e8-d9db-43d6-83e2-c08e4749ca29" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cfa3fb632320c027112c736c6f89e4dc" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="1f3c66e0-7684-4412-85ae-938bcfc42664"/>
     <xsd:import namespace="9c30d4e8-d9db-43d6-83e2-c08e4749ca29"/>
@@ -5328,6 +5328,7 @@
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
                 <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -5417,6 +5418,11 @@
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="26" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9c30d4e8-d9db-43d6-83e2-c08e4749ca29" elementFormDefault="qualified">
@@ -5583,7 +5589,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74C2CB9A-0659-4BA6-BE93-561DA454A0D6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BAF010D-7CB8-41FF-BC41-D53028AFC750}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
